--- a/admin/excel/Brazhkin_pubs.xlsx
+++ b/admin/excel/Brazhkin_pubs.xlsx
@@ -237,7 +237,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
